--- a/Sprint 3/Planilhas/Cluster.xlsx
+++ b/Sprint 3/Planilhas/Cluster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto-LogInova-Consultoria\Sprint 3\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57C9830-41BE-48EB-8793-474DC7AC9C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964E79C1-0328-4456-B5DB-358A8F4A69DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11100" yWindow="72" windowWidth="12552" windowHeight="12096" xr2:uid="{91EDD997-8A95-4DA9-B834-A5386CD42D89}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{91EDD997-8A95-4DA9-B834-A5386CD42D89}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -40,14 +40,76 @@
   </si>
   <si>
     <t>LONG</t>
+  </si>
+  <si>
+    <t>-23.15042955</t>
+  </si>
+  <si>
+    <t>-22.73191</t>
+  </si>
+  <si>
+    <t>-23.55851556</t>
+  </si>
+  <si>
+    <t>-21.17044</t>
+  </si>
+  <si>
+    <t>-22.31419</t>
+  </si>
+  <si>
+    <t>-23.06199364</t>
+  </si>
+  <si>
+    <t>-22.03560667</t>
+  </si>
+  <si>
+    <t>-45.77803517</t>
+  </si>
+  <si>
+    <t>-47.454605</t>
+  </si>
+  <si>
+    <t>-46.713095</t>
+  </si>
+  <si>
+    <t>-47.78508667</t>
+  </si>
+  <si>
+    <t>-49.062805</t>
+  </si>
+  <si>
+    <t>-47.16717</t>
+  </si>
+  <si>
+    <t>-47.87679</t>
+  </si>
+  <si>
+    <t>media de km do centro ao cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centro </t>
+  </si>
+  <si>
+    <t>-22.767823911381</t>
+  </si>
+  <si>
+    <t>-46.2692074774452</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,9 +137,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,153 +459,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F971E9-015A-4B46-982D-2AE748D16A08}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C5" s="2">
         <v>17258200</v>
       </c>
-      <c r="D2">
-        <v>-23.150429549999998</v>
-      </c>
-      <c r="E2">
-        <v>-45.778035170000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>5341000</v>
       </c>
-      <c r="D3">
-        <v>-22.731909999999999</v>
-      </c>
-      <c r="E3">
-        <v>-47.454605000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <v>38613600</v>
       </c>
-      <c r="D4">
-        <v>-23.55851556</v>
-      </c>
-      <c r="E4">
-        <v>-46.713095000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <v>4948400</v>
       </c>
-      <c r="D5">
-        <v>-21.170439999999999</v>
-      </c>
-      <c r="E5">
-        <v>-47.785086669999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B9">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>3500000</v>
       </c>
-      <c r="D6">
-        <v>-22.31419</v>
-      </c>
-      <c r="E6">
-        <v>-49.062804999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C10">
         <v>18557600</v>
       </c>
-      <c r="D7">
-        <v>-23.061993640000001</v>
-      </c>
-      <c r="E7">
-        <v>-47.167169999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="D10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C11">
         <v>2272000</v>
       </c>
-      <c r="D8">
-        <v>-22.03560667</v>
-      </c>
-      <c r="E8">
-        <v>-47.87679</v>
-      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
